--- a/data/Eksklusionslister/Nordea_eksklusionsliste_isin.xlsx
+++ b/data/Eksklusionslister/Nordea_eksklusionsliste_isin.xlsx
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Eaton Corp PLC', 'Eaton Corp. Plc', nan, 'USA']</t>
+          <t>['Eaton Corp PLC', nan, 'Eaton Corp. Plc', 'USA']</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Rudersdal', 'Rødovre', 'Mariagerfjord', 'Fanø']</t>
+          <t>['Rudersdal', 'Mariagerfjord', 'Rødovre', 'Fanø']</t>
         </is>
       </c>
     </row>
